--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Scgb3a1-Marco.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Scgb3a1-Marco.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9222550000000002</v>
+        <v>1.332247666666667</v>
       </c>
       <c r="H2">
-        <v>2.766765</v>
+        <v>3.996743</v>
       </c>
       <c r="I2">
-        <v>0.2566621879160563</v>
+        <v>0.2533195905326537</v>
       </c>
       <c r="J2">
-        <v>0.2566621879160563</v>
+        <v>0.2533195905326537</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +561,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.031228</v>
+        <v>0.013454</v>
       </c>
       <c r="N2">
-        <v>0.093684</v>
+        <v>0.040362</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02880017914000001</v>
+        <v>0.01792406010733334</v>
       </c>
       <c r="R2">
-        <v>0.25920161226</v>
+        <v>0.161316540966</v>
       </c>
       <c r="S2">
-        <v>0.2566621879160563</v>
+        <v>0.2533195905326537</v>
       </c>
       <c r="T2">
-        <v>0.2566621879160563</v>
+        <v>0.2533195905326537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -608,10 +611,10 @@
         <v>2.661549</v>
       </c>
       <c r="I3">
-        <v>0.2469017027415742</v>
+        <v>0.1686929839778525</v>
       </c>
       <c r="J3">
-        <v>0.2469017027415742</v>
+        <v>0.1686929839778525</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +623,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.031228</v>
+        <v>0.013454</v>
       </c>
       <c r="N3">
-        <v>0.093684</v>
+        <v>0.040362</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.027704950724</v>
+        <v>0.011936160082</v>
       </c>
       <c r="R3">
-        <v>0.249344556516</v>
+        <v>0.107425440738</v>
       </c>
       <c r="S3">
-        <v>0.2469017027415742</v>
+        <v>0.1686929839778525</v>
       </c>
       <c r="T3">
-        <v>0.2469017027415742</v>
+        <v>0.1686929839778525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4123459999999999</v>
+        <v>0.8076353333333334</v>
       </c>
       <c r="H4">
-        <v>1.237038</v>
+        <v>2.422906</v>
       </c>
       <c r="I4">
-        <v>0.1147552754264646</v>
+        <v>0.1535674312356611</v>
       </c>
       <c r="J4">
-        <v>0.1147552754264646</v>
+        <v>0.1535674312356611</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +685,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.031228</v>
+        <v>0.013454</v>
       </c>
       <c r="N4">
-        <v>0.093684</v>
+        <v>0.040362</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.012876740888</v>
+        <v>0.01086592577466667</v>
       </c>
       <c r="R4">
-        <v>0.115890667992</v>
+        <v>0.09779333197200002</v>
       </c>
       <c r="S4">
-        <v>0.1147552754264646</v>
+        <v>0.1535674312356611</v>
       </c>
       <c r="T4">
-        <v>0.1147552754264646</v>
+        <v>0.1535674312356611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9682029999999999</v>
+        <v>1.183989333333334</v>
       </c>
       <c r="H5">
-        <v>2.904609</v>
+        <v>3.551968</v>
       </c>
       <c r="I5">
-        <v>0.2694494476331268</v>
+        <v>0.2251290811906318</v>
       </c>
       <c r="J5">
-        <v>0.2694494476331269</v>
+        <v>0.2251290811906317</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +747,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.031228</v>
+        <v>0.013454</v>
       </c>
       <c r="N5">
-        <v>0.093684</v>
+        <v>0.040362</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.030235043284</v>
+        <v>0.01592939249066667</v>
       </c>
       <c r="R5">
-        <v>0.272115389556</v>
+        <v>0.143364532416</v>
       </c>
       <c r="S5">
-        <v>0.2694494476331268</v>
+        <v>0.2251290811906318</v>
       </c>
       <c r="T5">
-        <v>0.2694494476331269</v>
+        <v>0.2251290811906317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4032769999999999</v>
+        <v>0.295866</v>
       </c>
       <c r="H6">
-        <v>1.209831</v>
+        <v>0.887598</v>
       </c>
       <c r="I6">
-        <v>0.112231386282778</v>
+        <v>0.0562572979842843</v>
       </c>
       <c r="J6">
-        <v>0.112231386282778</v>
+        <v>0.0562572979842843</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +809,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.031228</v>
+        <v>0.013454</v>
       </c>
       <c r="N6">
-        <v>0.093684</v>
+        <v>0.040362</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +821,78 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.012593534156</v>
+        <v>0.003980581164000001</v>
       </c>
       <c r="R6">
-        <v>0.113341807404</v>
+        <v>0.035825230476</v>
       </c>
       <c r="S6">
-        <v>0.112231386282778</v>
+        <v>0.0562572979842843</v>
       </c>
       <c r="T6">
-        <v>0.112231386282778</v>
+        <v>0.0562572979842843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7522363333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.256709</v>
+      </c>
+      <c r="I7">
+        <v>0.1430336150789166</v>
+      </c>
+      <c r="J7">
+        <v>0.1430336150789166</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.013454</v>
+      </c>
+      <c r="N7">
+        <v>0.040362</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0.01012058762866667</v>
+      </c>
+      <c r="R7">
+        <v>0.091085288658</v>
+      </c>
+      <c r="S7">
+        <v>0.1430336150789166</v>
+      </c>
+      <c r="T7">
+        <v>0.1430336150789166</v>
       </c>
     </row>
   </sheetData>
